--- a/Data/aearep-420/candidatepackages.xlsx
+++ b/Data/aearep-420/candidatepackages.xlsx
@@ -112,7 +112,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -124,10 +124,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>378</v>
+        <v>575</v>
       </c>
       <c r="C3">
-        <v>0.1253315657377243</v>
+        <v>0.19008263945579529</v>
       </c>
       <c r="D3"/>
     </row>
@@ -136,10 +136,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1133</v>
+        <v>955</v>
       </c>
       <c r="C4">
-        <v>0.37566313147544861</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D4"/>
     </row>
